--- a/2023/09/26/FormTrungQuoc.xlsx
+++ b/2023/09/26/FormTrungQuoc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Congviec2023\Autofill\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A4523E5-C69E-43FB-B09B-C680E2417971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DBBAB06-DA3A-4BFC-B35B-1D3F8F6C5DA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{09429FE4-84AA-424C-866A-F17882CEC0F7}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="31">
   <si>
     <t>护照照片最大2mb，肖像照片最大1mb。图像文件名按数字顺序排列</t>
   </si>
@@ -152,36 +152,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Giới tính
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Sex</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-性别</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Ngày dự kiến nhập cảnh
 </t>
     </r>
@@ -333,12 +303,103 @@
 中国联系地址</t>
     </r>
   </si>
+  <si>
+    <t>Lee</t>
+  </si>
+  <si>
+    <t>Suyeon</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Giới tính
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sex</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+性别
+M: 男 F: 女</t>
+    </r>
+  </si>
+  <si>
+    <t>M111222</t>
+  </si>
+  <si>
+    <t>Beijing</t>
+  </si>
+  <si>
+    <t>M111223</t>
+  </si>
+  <si>
+    <t>M111224</t>
+  </si>
+  <si>
+    <t>M111225</t>
+  </si>
+  <si>
+    <t>M111226</t>
+  </si>
+  <si>
+    <t>M111227</t>
+  </si>
+  <si>
+    <t>M111228</t>
+  </si>
+  <si>
+    <t>M111229</t>
+  </si>
+  <si>
+    <t>M111230</t>
+  </si>
+  <si>
+    <t>M111231</t>
+  </si>
+  <si>
+    <t>Kim</t>
+  </si>
+  <si>
+    <t>Hyeri</t>
+  </si>
+  <si>
+    <t>Choi</t>
+  </si>
+  <si>
+    <t>Sooyung</t>
+  </si>
+  <si>
+    <t>Park</t>
+  </si>
+  <si>
+    <t>Jiyeon</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -359,6 +420,12 @@
       <i/>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -411,7 +478,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -448,15 +515,6 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -776,13 +834,13 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="15"/>
+    <col min="1" max="1" width="8.796875" style="6"/>
     <col min="2" max="2" width="8.5" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.8984375" style="6" customWidth="1"/>
     <col min="4" max="4" width="11.296875" style="7" bestFit="1" customWidth="1"/>
@@ -796,7 +854,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="75" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="10" t="s">
@@ -809,166 +867,346 @@
         <v>4</v>
       </c>
       <c r="E1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="H1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="J1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="10" t="s">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="3">
+        <v>34260</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="3">
+        <v>45207</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="3">
+        <v>43969</v>
+      </c>
+      <c r="I2" s="3">
+        <v>47621</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="3">
+        <v>34261</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="3">
+        <v>45208</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="3">
+        <v>43969</v>
+      </c>
+      <c r="I3" s="3">
+        <v>47621</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="3">
+        <v>34262</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="3">
+        <v>45209</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="3">
+        <v>43969</v>
+      </c>
+      <c r="I4" s="3">
+        <v>47621</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="3">
+        <v>34263</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="3">
+        <v>45210</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="3">
+        <v>43969</v>
+      </c>
+      <c r="I5" s="3">
+        <v>47621</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="3">
+        <v>34264</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="3">
+        <v>45211</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="3">
+        <v>43969</v>
+      </c>
+      <c r="I6" s="3">
+        <v>47621</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="3">
+        <v>34265</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="3">
+        <v>45212</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="3">
+        <v>43969</v>
+      </c>
+      <c r="I7" s="3">
+        <v>47621</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="3">
+        <v>34266</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="3">
+        <v>45213</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="3">
+        <v>43969</v>
+      </c>
+      <c r="I8" s="3">
+        <v>47621</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="3">
+        <v>34267</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="3">
+        <v>45214</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="3">
+        <v>43969</v>
+      </c>
+      <c r="I9" s="3">
+        <v>47621</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="3">
+        <v>34268</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="3">
+        <v>45215</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="3">
+        <v>43969</v>
+      </c>
+      <c r="I10" s="3">
+        <v>47621</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="13">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="5"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="13">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="5"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="13">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="5"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="13">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="5"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="13">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="5"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="13">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="5"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="13">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="5"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="13">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="5"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="13">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="5"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="13">
-        <v>10</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="5"/>
+      <c r="B11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="3">
+        <v>34269</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="3">
+        <v>45216</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="3">
+        <v>43969</v>
+      </c>
+      <c r="I11" s="3">
+        <v>47621</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="13">
+      <c r="A12" s="5">
         <v>11</v>
       </c>
       <c r="B12" s="5"/>
@@ -982,7 +1220,7 @@
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="13">
+      <c r="A13" s="5">
         <v>12</v>
       </c>
       <c r="B13" s="5"/>
@@ -996,7 +1234,7 @@
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="13">
+      <c r="A14" s="5">
         <v>13</v>
       </c>
       <c r="B14" s="5"/>
@@ -1010,7 +1248,7 @@
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="13">
+      <c r="A15" s="5">
         <v>14</v>
       </c>
       <c r="B15" s="5"/>
@@ -1024,7 +1262,7 @@
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="13">
+      <c r="A16" s="5">
         <v>15</v>
       </c>
       <c r="B16" s="5"/>
@@ -1038,7 +1276,7 @@
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="13">
+      <c r="A17" s="5">
         <v>16</v>
       </c>
       <c r="B17" s="5"/>
@@ -1052,7 +1290,7 @@
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="13">
+      <c r="A18" s="5">
         <v>17</v>
       </c>
       <c r="B18" s="5"/>
@@ -1066,7 +1304,7 @@
       <c r="J18" s="5"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="13">
+      <c r="A19" s="5">
         <v>18</v>
       </c>
       <c r="B19" s="5"/>
@@ -1080,7 +1318,7 @@
       <c r="J19" s="5"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="13">
+      <c r="A20" s="5">
         <v>19</v>
       </c>
       <c r="B20" s="5"/>
@@ -1094,7 +1332,7 @@
       <c r="J20" s="5"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="13">
+      <c r="A21" s="5">
         <v>20</v>
       </c>
       <c r="B21" s="5"/>
@@ -1121,6 +1359,7 @@
       <c r="J23" s="9"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -1132,13 +1371,13 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="15"/>
+    <col min="1" max="1" width="8.796875" style="6"/>
     <col min="2" max="2" width="8.5" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.8984375" style="6" customWidth="1"/>
     <col min="4" max="4" width="11.296875" style="7" bestFit="1" customWidth="1"/>
@@ -1152,7 +1391,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="75" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="10" t="s">
@@ -1165,166 +1404,346 @@
         <v>4</v>
       </c>
       <c r="E1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="H1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="J1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="10" t="s">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="13">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="5"/>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="3">
+        <v>34260</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="3">
+        <v>45207</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="3">
+        <v>43969</v>
+      </c>
+      <c r="I2" s="3">
+        <v>47621</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="13">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="5"/>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3">
+        <v>34261</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="3">
+        <v>45208</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="3">
+        <v>43969</v>
+      </c>
+      <c r="I3" s="3">
+        <v>47621</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="13">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="5"/>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="3">
+        <v>34262</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="3">
+        <v>45209</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="3">
+        <v>43969</v>
+      </c>
+      <c r="I4" s="3">
+        <v>47621</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="13">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="5"/>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="3">
+        <v>34263</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="3">
+        <v>45210</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="3">
+        <v>43969</v>
+      </c>
+      <c r="I5" s="3">
+        <v>47621</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="13">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="5"/>
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="3">
+        <v>34264</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="3">
+        <v>45211</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="3">
+        <v>43969</v>
+      </c>
+      <c r="I6" s="3">
+        <v>47621</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="13">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="5"/>
+      <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="3">
+        <v>34265</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="3">
+        <v>45212</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="3">
+        <v>43969</v>
+      </c>
+      <c r="I7" s="3">
+        <v>47621</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="13">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="5"/>
+      <c r="B8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="3">
+        <v>34266</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="3">
+        <v>45213</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="3">
+        <v>43969</v>
+      </c>
+      <c r="I8" s="3">
+        <v>47621</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="13">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="5"/>
+      <c r="B9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="3">
+        <v>34267</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="3">
+        <v>45214</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="3">
+        <v>43969</v>
+      </c>
+      <c r="I9" s="3">
+        <v>47621</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="13">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="5"/>
+      <c r="B10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="3">
+        <v>34268</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="3">
+        <v>45215</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="3">
+        <v>43969</v>
+      </c>
+      <c r="I10" s="3">
+        <v>47621</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="13">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="5"/>
+      <c r="B11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="3">
+        <v>34269</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="3">
+        <v>45216</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="3">
+        <v>43969</v>
+      </c>
+      <c r="I11" s="3">
+        <v>47621</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="13">
+      <c r="A12" s="5">
         <v>11</v>
       </c>
       <c r="B12" s="5"/>
@@ -1338,7 +1757,7 @@
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="13">
+      <c r="A13" s="5">
         <v>12</v>
       </c>
       <c r="B13" s="5"/>
@@ -1352,7 +1771,7 @@
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="13">
+      <c r="A14" s="5">
         <v>13</v>
       </c>
       <c r="B14" s="5"/>
@@ -1366,7 +1785,7 @@
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="13">
+      <c r="A15" s="5">
         <v>14</v>
       </c>
       <c r="B15" s="5"/>
@@ -1380,7 +1799,7 @@
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="13">
+      <c r="A16" s="5">
         <v>15</v>
       </c>
       <c r="B16" s="5"/>
@@ -1394,7 +1813,7 @@
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="13">
+      <c r="A17" s="5">
         <v>16</v>
       </c>
       <c r="B17" s="5"/>
@@ -1408,7 +1827,7 @@
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="13">
+      <c r="A18" s="5">
         <v>17</v>
       </c>
       <c r="B18" s="5"/>
@@ -1422,7 +1841,7 @@
       <c r="J18" s="5"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="13">
+      <c r="A19" s="5">
         <v>18</v>
       </c>
       <c r="B19" s="5"/>
@@ -1436,7 +1855,7 @@
       <c r="J19" s="5"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="13">
+      <c r="A20" s="5">
         <v>19</v>
       </c>
       <c r="B20" s="5"/>
@@ -1450,7 +1869,7 @@
       <c r="J20" s="5"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="13">
+      <c r="A21" s="5">
         <v>20</v>
       </c>
       <c r="B21" s="5"/>
@@ -1487,13 +1906,13 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="15"/>
+    <col min="1" max="1" width="8.796875" style="6"/>
     <col min="2" max="2" width="8.5" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.8984375" style="6" customWidth="1"/>
     <col min="4" max="4" width="11.296875" style="7" bestFit="1" customWidth="1"/>
@@ -1507,7 +1926,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="75" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="10" t="s">
@@ -1520,166 +1939,346 @@
         <v>4</v>
       </c>
       <c r="E1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="H1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="J1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="10" t="s">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="3">
+        <v>34260</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="3">
+        <v>45207</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="3">
+        <v>43969</v>
+      </c>
+      <c r="I2" s="3">
+        <v>47621</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="3">
+        <v>34261</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="3">
+        <v>45208</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="3">
+        <v>43969</v>
+      </c>
+      <c r="I3" s="3">
+        <v>47621</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="3">
+        <v>34262</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="3">
+        <v>45209</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="3">
+        <v>43969</v>
+      </c>
+      <c r="I4" s="3">
+        <v>47621</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="3">
+        <v>34263</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="3">
+        <v>45210</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="3">
+        <v>43969</v>
+      </c>
+      <c r="I5" s="3">
+        <v>47621</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="3">
+        <v>34264</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="3">
+        <v>45211</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="3">
+        <v>43969</v>
+      </c>
+      <c r="I6" s="3">
+        <v>47621</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="3">
+        <v>34265</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="3">
+        <v>45212</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="3">
+        <v>43969</v>
+      </c>
+      <c r="I7" s="3">
+        <v>47621</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="3">
+        <v>34266</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="3">
+        <v>45213</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="3">
+        <v>43969</v>
+      </c>
+      <c r="I8" s="3">
+        <v>47621</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="3">
+        <v>34267</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="3">
+        <v>45214</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="3">
+        <v>43969</v>
+      </c>
+      <c r="I9" s="3">
+        <v>47621</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="3">
+        <v>34268</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="3">
+        <v>45215</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="3">
+        <v>43969</v>
+      </c>
+      <c r="I10" s="3">
+        <v>47621</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="13">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="5"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="13">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="5"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="13">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="5"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="13">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="5"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="13">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="5"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="13">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="5"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="13">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="5"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="13">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="5"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="13">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="5"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="13">
-        <v>10</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="5"/>
+      <c r="B11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="3">
+        <v>34269</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="3">
+        <v>45216</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="3">
+        <v>43969</v>
+      </c>
+      <c r="I11" s="3">
+        <v>47621</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="13">
+      <c r="A12" s="5">
         <v>11</v>
       </c>
       <c r="B12" s="5"/>
@@ -1693,7 +2292,7 @@
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="13">
+      <c r="A13" s="5">
         <v>12</v>
       </c>
       <c r="B13" s="5"/>
@@ -1707,7 +2306,7 @@
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="13">
+      <c r="A14" s="5">
         <v>13</v>
       </c>
       <c r="B14" s="5"/>
@@ -1721,7 +2320,7 @@
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="13">
+      <c r="A15" s="5">
         <v>14</v>
       </c>
       <c r="B15" s="5"/>
@@ -1735,7 +2334,7 @@
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="13">
+      <c r="A16" s="5">
         <v>15</v>
       </c>
       <c r="B16" s="5"/>
@@ -1749,7 +2348,7 @@
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="13">
+      <c r="A17" s="5">
         <v>16</v>
       </c>
       <c r="B17" s="5"/>
@@ -1763,7 +2362,7 @@
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="13">
+      <c r="A18" s="5">
         <v>17</v>
       </c>
       <c r="B18" s="5"/>
@@ -1777,7 +2376,7 @@
       <c r="J18" s="5"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="13">
+      <c r="A19" s="5">
         <v>18</v>
       </c>
       <c r="B19" s="5"/>
@@ -1791,7 +2390,7 @@
       <c r="J19" s="5"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="13">
+      <c r="A20" s="5">
         <v>19</v>
       </c>
       <c r="B20" s="5"/>
@@ -1805,7 +2404,7 @@
       <c r="J20" s="5"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="13">
+      <c r="A21" s="5">
         <v>20</v>
       </c>
       <c r="B21" s="5"/>
@@ -1848,7 +2447,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="15"/>
+    <col min="1" max="1" width="8.796875" style="6"/>
     <col min="2" max="2" width="8.5" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.8984375" style="6" customWidth="1"/>
     <col min="4" max="4" width="11.296875" style="7" bestFit="1" customWidth="1"/>
@@ -1862,7 +2461,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="75" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="10" t="s">
@@ -1875,166 +2474,346 @@
         <v>4</v>
       </c>
       <c r="E1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="H1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="J1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="10" t="s">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="3">
+        <v>34260</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="3">
+        <v>45207</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="3">
+        <v>43969</v>
+      </c>
+      <c r="I2" s="3">
+        <v>47621</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="3">
+        <v>34261</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="3">
+        <v>45208</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="3">
+        <v>43969</v>
+      </c>
+      <c r="I3" s="3">
+        <v>47621</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="3">
+        <v>34262</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="3">
+        <v>45209</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="3">
+        <v>43969</v>
+      </c>
+      <c r="I4" s="3">
+        <v>47621</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="3">
+        <v>34263</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="3">
+        <v>45210</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="3">
+        <v>43969</v>
+      </c>
+      <c r="I5" s="3">
+        <v>47621</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="3">
+        <v>34264</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="3">
+        <v>45211</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="3">
+        <v>43969</v>
+      </c>
+      <c r="I6" s="3">
+        <v>47621</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="3">
+        <v>34265</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="3">
+        <v>45212</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="3">
+        <v>43969</v>
+      </c>
+      <c r="I7" s="3">
+        <v>47621</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="3">
+        <v>34266</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="3">
+        <v>45213</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="3">
+        <v>43969</v>
+      </c>
+      <c r="I8" s="3">
+        <v>47621</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="3">
+        <v>34267</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="3">
+        <v>45214</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="3">
+        <v>43969</v>
+      </c>
+      <c r="I9" s="3">
+        <v>47621</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="3">
+        <v>34268</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="3">
+        <v>45215</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="3">
+        <v>43969</v>
+      </c>
+      <c r="I10" s="3">
+        <v>47621</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="13">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="5"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="13">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="5"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="13">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="5"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="13">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="5"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="13">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="5"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="13">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="5"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="13">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="5"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="13">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="5"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="13">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="5"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="13">
-        <v>10</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="5"/>
+      <c r="B11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="3">
+        <v>34269</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="3">
+        <v>45216</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="3">
+        <v>43969</v>
+      </c>
+      <c r="I11" s="3">
+        <v>47621</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="13">
+      <c r="A12" s="5">
         <v>11</v>
       </c>
       <c r="B12" s="5"/>
@@ -2048,7 +2827,7 @@
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="13">
+      <c r="A13" s="5">
         <v>12</v>
       </c>
       <c r="B13" s="5"/>
@@ -2062,7 +2841,7 @@
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="13">
+      <c r="A14" s="5">
         <v>13</v>
       </c>
       <c r="B14" s="5"/>
@@ -2076,7 +2855,7 @@
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="13">
+      <c r="A15" s="5">
         <v>14</v>
       </c>
       <c r="B15" s="5"/>
@@ -2090,7 +2869,7 @@
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="13">
+      <c r="A16" s="5">
         <v>15</v>
       </c>
       <c r="B16" s="5"/>
@@ -2104,7 +2883,7 @@
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="13">
+      <c r="A17" s="5">
         <v>16</v>
       </c>
       <c r="B17" s="5"/>
@@ -2118,7 +2897,7 @@
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="13">
+      <c r="A18" s="5">
         <v>17</v>
       </c>
       <c r="B18" s="5"/>
@@ -2132,7 +2911,7 @@
       <c r="J18" s="5"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="13">
+      <c r="A19" s="5">
         <v>18</v>
       </c>
       <c r="B19" s="5"/>
@@ -2146,7 +2925,7 @@
       <c r="J19" s="5"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="13">
+      <c r="A20" s="5">
         <v>19</v>
       </c>
       <c r="B20" s="5"/>
@@ -2160,7 +2939,7 @@
       <c r="J20" s="5"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="13">
+      <c r="A21" s="5">
         <v>20</v>
       </c>
       <c r="B21" s="5"/>

--- a/2023/09/26/FormTrungQuoc.xlsx
+++ b/2023/09/26/FormTrungQuoc.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Congviec2023\Autofill\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Congviec2023\Autofill\2023\09\26\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DBBAB06-DA3A-4BFC-B35B-1D3F8F6C5DA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{399A4343-1D45-4383-8653-84A81385CE6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{09429FE4-84AA-424C-866A-F17882CEC0F7}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="32">
   <si>
     <t>护照照片最大2mb，肖像照片最大1mb。图像文件名按数字顺序排列</t>
   </si>
@@ -393,6 +393,9 @@
   </si>
   <si>
     <t>Jiyeon</t>
+  </si>
+  <si>
+    <t>女</t>
   </si>
 </sst>
 </file>
@@ -478,7 +481,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -515,6 +518,9 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -831,7 +837,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40DA20D7-6D38-4A08-B1FF-3ED26734B309}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -850,10 +856,12 @@
     <col min="8" max="8" width="20.09765625" style="7" customWidth="1"/>
     <col min="9" max="9" width="18.3984375" style="7" customWidth="1"/>
     <col min="10" max="10" width="33.296875" style="6" customWidth="1"/>
-    <col min="11" max="16384" width="8.796875" style="1"/>
+    <col min="11" max="11" width="8.796875" style="1"/>
+    <col min="12" max="12" width="10.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="75" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
@@ -885,7 +893,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -899,7 +907,7 @@
         <v>34260</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="F2" s="3">
         <v>45207</v>
@@ -917,7 +925,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -940,16 +948,17 @@
         <v>16</v>
       </c>
       <c r="H3" s="3">
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="I3" s="3">
-        <v>47621</v>
+        <v>47622</v>
       </c>
       <c r="J3" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L3" s="13"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -972,16 +981,16 @@
         <v>17</v>
       </c>
       <c r="H4" s="3">
-        <v>43969</v>
+        <v>43971</v>
       </c>
       <c r="I4" s="3">
-        <v>47621</v>
+        <v>47623</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1004,16 +1013,20 @@
         <v>18</v>
       </c>
       <c r="H5" s="3">
-        <v>43969</v>
+        <v>43972</v>
       </c>
       <c r="I5" s="3">
-        <v>47621</v>
+        <v>47624</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L5" s="1">
+        <f>TYPE(D2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1036,16 +1049,16 @@
         <v>19</v>
       </c>
       <c r="H6" s="3">
-        <v>43969</v>
+        <v>43973</v>
       </c>
       <c r="I6" s="3">
-        <v>47621</v>
+        <v>47625</v>
       </c>
       <c r="J6" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1068,16 +1081,16 @@
         <v>20</v>
       </c>
       <c r="H7" s="3">
-        <v>43969</v>
+        <v>43974</v>
       </c>
       <c r="I7" s="3">
-        <v>47621</v>
+        <v>47626</v>
       </c>
       <c r="J7" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1100,16 +1113,16 @@
         <v>21</v>
       </c>
       <c r="H8" s="3">
-        <v>43969</v>
+        <v>43975</v>
       </c>
       <c r="I8" s="3">
-        <v>47621</v>
+        <v>47627</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -1132,16 +1145,16 @@
         <v>22</v>
       </c>
       <c r="H9" s="3">
-        <v>43969</v>
+        <v>43976</v>
       </c>
       <c r="I9" s="3">
-        <v>47621</v>
+        <v>47628</v>
       </c>
       <c r="J9" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -1164,16 +1177,16 @@
         <v>23</v>
       </c>
       <c r="H10" s="3">
-        <v>43969</v>
+        <v>43977</v>
       </c>
       <c r="I10" s="3">
-        <v>47621</v>
+        <v>47629</v>
       </c>
       <c r="J10" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -1196,16 +1209,16 @@
         <v>24</v>
       </c>
       <c r="H11" s="3">
-        <v>43969</v>
+        <v>43978</v>
       </c>
       <c r="I11" s="3">
-        <v>47621</v>
+        <v>47630</v>
       </c>
       <c r="J11" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -1219,7 +1232,7 @@
       <c r="I12" s="3"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -1233,7 +1246,7 @@
       <c r="I13" s="3"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -1247,7 +1260,7 @@
       <c r="I14" s="3"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -1261,7 +1274,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>15</v>
       </c>
